--- a/various/Liste des équipes SB et cotes.xlsx
+++ b/various/Liste des équipes SB et cotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SuperBowlBET\various\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C264AA9-E4A0-42CA-B203-16C1FB0E6C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A77C5B4-A676-4421-9F22-BC04449A3EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC7DDF27-17F0-4E03-893F-CB2DBDDBF041}"/>
   </bookViews>
@@ -564,10 +564,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73E850C-3838-40F2-9862-0EF8FAD1E981}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1710,8 +1713,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B33">
     <sortCondition ref="B2:B33"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
